--- a/時間帯別稼働推移元データ.xlsx
+++ b/時間帯別稼働推移元データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\JuntenNerimaOperoomUseTransitionAsTimezone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A0D3D-691F-4F86-8A3D-0E33D8D2BCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E0D0B-7F17-4D68-94DB-5AF8A0A8F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="32590" windowHeight="19110" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2870" yWindow="510" windowWidth="32590" windowHeight="19110" tabRatio="842" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="時間帯別稼働推移元データ" sheetId="1" r:id="rId1"/>
@@ -15102,7 +15102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -15231,8 +15231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/時間帯別稼働推移元データ.xlsx
+++ b/時間帯別稼働推移元データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\JuntenNerimaOperoomUseTransitionAsTimezone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893E0D0B-7F17-4D68-94DB-5AF8A0A8F996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4D7825-DA66-46BE-BE5F-2F2C7B58321E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2870" yWindow="510" windowWidth="32590" windowHeight="19110" tabRatio="842" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4125" yWindow="3510" windowWidth="21600" windowHeight="12645" tabRatio="842" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="時間帯別稼働推移元データ" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="618">
   <si>
     <t>手術実施管理番号</t>
   </si>
@@ -1878,28 +1878,231 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>曜日集計（土曜日）</t>
+  </si>
+  <si>
     <t>土曜日の稼働を計算</t>
+  </si>
+  <si>
+    <t>手術室使用を集計するためのサンプリング間隔は、8:00-20:29までの1分毎の使用有無で判断する</t>
     <rPh sb="0" eb="3">
-      <t>ドヨウビ</t>
+      <t>シュジュツシツ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>カドウ</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある手術室のある時刻で、手術室が使用されていた場合（入室時刻と麻酔終了時刻かまたはその間にある場合）、当該時刻の手術室使用数は1.0とする</t>
+    <rPh sb="2" eb="5">
+      <t>シュジュツシツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>マスイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>シュジュツシツ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある手術室のある時刻で、手術室が1つ以上の手術で使用されている場合も、当該時刻の手術室使用数は1.0とする</t>
+    <rPh sb="12" eb="15">
+      <t>シュジュツシツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュジュツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="40" eb="46">
+      <t>シュジュツシツシヨウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナップショット時刻の集計は、8:00-20:00の30分毎とし、スナップショット時刻8:00の集計は、8:00-8:29つまり、スナップショット時刻＋０～+29分までを集計区間とする</t>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フンゴト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>クカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナップショット時刻8:00での集計は、8:00-8:29区間に集計された30個の手術使用数の総計を30で除算した平均使用数とする</t>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュジュツ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>シヨウスウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウケイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジョザン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>シヨウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01A手術室の使用のみを集計し、01B手術室の使用は集計しない</t>
+    <rPh sb="3" eb="6">
+      <t>シュジュツシツ</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ケイサン</t>
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シュジュツシツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>曜日集計（土曜日）</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウビ</t>
+    <t>01B使用があった場合は、01A使用として集計する</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ドヨウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2405,19 +2608,19 @@
       <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="8.25" style="5" customWidth="1"/>
     <col min="11" max="16384" width="8.25" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2440,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2463,7 +2666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2486,7 +2689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2509,7 +2712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2555,7 +2758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2578,7 +2781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -2624,7 +2827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -2647,7 +2850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -2670,7 +2873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -2693,7 +2896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
@@ -2716,7 +2919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
@@ -2739,7 +2942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2762,7 +2965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -2785,7 +2988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>33</v>
       </c>
@@ -2808,7 +3011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -2831,7 +3034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
@@ -2854,7 +3057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -2900,7 +3103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2923,7 +3126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -2946,7 +3149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -2969,7 +3172,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2992,7 +3195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -3038,7 +3241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
@@ -3061,7 +3264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>50</v>
       </c>
@@ -3084,7 +3287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
@@ -3107,7 +3310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -3130,7 +3333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
@@ -3153,7 +3356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>54</v>
       </c>
@@ -3176,7 +3379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>55</v>
       </c>
@@ -3199,7 +3402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>56</v>
       </c>
@@ -3222,7 +3425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>57</v>
       </c>
@@ -3245,7 +3448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>58</v>
       </c>
@@ -3268,7 +3471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
@@ -3291,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>60</v>
       </c>
@@ -3314,7 +3517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
@@ -3337,7 +3540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>62</v>
       </c>
@@ -3360,7 +3563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>63</v>
       </c>
@@ -3383,7 +3586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>65</v>
       </c>
@@ -3406,7 +3609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>66</v>
       </c>
@@ -3429,7 +3632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
@@ -3452,7 +3655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>68</v>
       </c>
@@ -3475,7 +3678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>69</v>
       </c>
@@ -3498,7 +3701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>70</v>
       </c>
@@ -3521,7 +3724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>71</v>
       </c>
@@ -3544,7 +3747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>72</v>
       </c>
@@ -3567,7 +3770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>73</v>
       </c>
@@ -3590,7 +3793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>74</v>
       </c>
@@ -3613,7 +3816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>75</v>
       </c>
@@ -3636,7 +3839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>76</v>
       </c>
@@ -3659,7 +3862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>77</v>
       </c>
@@ -3682,7 +3885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>78</v>
       </c>
@@ -3705,7 +3908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>79</v>
       </c>
@@ -3728,7 +3931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>80</v>
       </c>
@@ -3751,7 +3954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>83</v>
       </c>
@@ -3774,7 +3977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>84</v>
       </c>
@@ -3797,7 +4000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>85</v>
       </c>
@@ -3820,7 +4023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>86</v>
       </c>
@@ -3843,7 +4046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>87</v>
       </c>
@@ -3866,7 +4069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>88</v>
       </c>
@@ -3889,7 +4092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>89</v>
       </c>
@@ -3912,7 +4115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>90</v>
       </c>
@@ -3935,7 +4138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>91</v>
       </c>
@@ -3958,7 +4161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>92</v>
       </c>
@@ -3981,7 +4184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>93</v>
       </c>
@@ -4004,7 +4207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>94</v>
       </c>
@@ -4027,7 +4230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>95</v>
       </c>
@@ -4050,7 +4253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
         <v>96</v>
       </c>
@@ -4073,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
         <v>97</v>
       </c>
@@ -4096,7 +4299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
         <v>98</v>
       </c>
@@ -4119,7 +4322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>99</v>
       </c>
@@ -4142,7 +4345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
         <v>100</v>
       </c>
@@ -4165,7 +4368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
         <v>101</v>
       </c>
@@ -4188,7 +4391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
         <v>102</v>
       </c>
@@ -4211,7 +4414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
         <v>103</v>
       </c>
@@ -4234,7 +4437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>104</v>
       </c>
@@ -4257,7 +4460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>105</v>
       </c>
@@ -4280,7 +4483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>108</v>
       </c>
@@ -4303,7 +4506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
         <v>109</v>
       </c>
@@ -4326,7 +4529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>110</v>
       </c>
@@ -4349,7 +4552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>111</v>
       </c>
@@ -4372,7 +4575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>112</v>
       </c>
@@ -4395,7 +4598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>113</v>
       </c>
@@ -4418,7 +4621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>114</v>
       </c>
@@ -4441,7 +4644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>115</v>
       </c>
@@ -4464,7 +4667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>116</v>
       </c>
@@ -4487,7 +4690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>117</v>
       </c>
@@ -4510,7 +4713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>118</v>
       </c>
@@ -4533,7 +4736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>119</v>
       </c>
@@ -4556,7 +4759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>120</v>
       </c>
@@ -4579,7 +4782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>121</v>
       </c>
@@ -4602,7 +4805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
         <v>122</v>
       </c>
@@ -4625,7 +4828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
         <v>123</v>
       </c>
@@ -4648,7 +4851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
         <v>124</v>
       </c>
@@ -4671,7 +4874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
         <v>125</v>
       </c>
@@ -4694,7 +4897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
         <v>126</v>
       </c>
@@ -4717,7 +4920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>127</v>
       </c>
@@ -4740,7 +4943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="4" t="s">
         <v>128</v>
       </c>
@@ -4763,7 +4966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>129</v>
       </c>
@@ -4786,7 +4989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
         <v>130</v>
       </c>
@@ -4809,7 +5012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
         <v>131</v>
       </c>
@@ -4832,7 +5035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="4" t="s">
         <v>132</v>
       </c>
@@ -4855,7 +5058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
         <v>133</v>
       </c>
@@ -4878,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
         <v>134</v>
       </c>
@@ -4901,7 +5104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
         <v>135</v>
       </c>
@@ -4924,7 +5127,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="4" t="s">
         <v>136</v>
       </c>
@@ -4947,7 +5150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="4" t="s">
         <v>137</v>
       </c>
@@ -4970,7 +5173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="4" t="s">
         <v>138</v>
       </c>
@@ -4993,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
         <v>139</v>
       </c>
@@ -5016,7 +5219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="4" t="s">
         <v>140</v>
       </c>
@@ -5039,7 +5242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="4" t="s">
         <v>141</v>
       </c>
@@ -5062,7 +5265,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="4" t="s">
         <v>142</v>
       </c>
@@ -5085,7 +5288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>145</v>
       </c>
@@ -5108,7 +5311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
         <v>146</v>
       </c>
@@ -5131,7 +5334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
         <v>147</v>
       </c>
@@ -5154,7 +5357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>148</v>
       </c>
@@ -5177,7 +5380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>149</v>
       </c>
@@ -5200,7 +5403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
         <v>150</v>
       </c>
@@ -5223,7 +5426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
         <v>151</v>
       </c>
@@ -5246,7 +5449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="4" t="s">
         <v>152</v>
       </c>
@@ -5269,7 +5472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>153</v>
       </c>
@@ -5292,7 +5495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
         <v>154</v>
       </c>
@@ -5315,7 +5518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="4" t="s">
         <v>155</v>
       </c>
@@ -5338,7 +5541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
         <v>156</v>
       </c>
@@ -5361,7 +5564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
         <v>157</v>
       </c>
@@ -5384,7 +5587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
         <v>158</v>
       </c>
@@ -5407,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="4" t="s">
         <v>159</v>
       </c>
@@ -5430,7 +5633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="4" t="s">
         <v>160</v>
       </c>
@@ -5453,7 +5656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
         <v>161</v>
       </c>
@@ -5476,7 +5679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="4" t="s">
         <v>162</v>
       </c>
@@ -5499,7 +5702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
         <v>163</v>
       </c>
@@ -5522,7 +5725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="4" t="s">
         <v>164</v>
       </c>
@@ -5545,7 +5748,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="4" t="s">
         <v>165</v>
       </c>
@@ -5568,7 +5771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="4" t="s">
         <v>166</v>
       </c>
@@ -5591,7 +5794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="4" t="s">
         <v>168</v>
       </c>
@@ -5614,7 +5817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="4" t="s">
         <v>169</v>
       </c>
@@ -5637,7 +5840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
         <v>170</v>
       </c>
@@ -5660,7 +5863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="4" t="s">
         <v>171</v>
       </c>
@@ -5683,7 +5886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="4" t="s">
         <v>172</v>
       </c>
@@ -5706,7 +5909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="4" t="s">
         <v>173</v>
       </c>
@@ -5729,7 +5932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="4" t="s">
         <v>174</v>
       </c>
@@ -5752,7 +5955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="4" t="s">
         <v>175</v>
       </c>
@@ -5775,7 +5978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
         <v>176</v>
       </c>
@@ -5798,7 +6001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="4" t="s">
         <v>177</v>
       </c>
@@ -5821,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="4" t="s">
         <v>178</v>
       </c>
@@ -5844,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="4" t="s">
         <v>179</v>
       </c>
@@ -5867,7 +6070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
         <v>180</v>
       </c>
@@ -5890,7 +6093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="4" t="s">
         <v>181</v>
       </c>
@@ -5913,7 +6116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="4" t="s">
         <v>182</v>
       </c>
@@ -5936,7 +6139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="4" t="s">
         <v>183</v>
       </c>
@@ -5959,7 +6162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="4" t="s">
         <v>184</v>
       </c>
@@ -5982,7 +6185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="4" t="s">
         <v>185</v>
       </c>
@@ -6005,7 +6208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="4" t="s">
         <v>186</v>
       </c>
@@ -6028,7 +6231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="4" t="s">
         <v>187</v>
       </c>
@@ -6051,7 +6254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="4" t="s">
         <v>189</v>
       </c>
@@ -6074,7 +6277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="4" t="s">
         <v>190</v>
       </c>
@@ -6097,7 +6300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
         <v>191</v>
       </c>
@@ -6120,7 +6323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="4" t="s">
         <v>192</v>
       </c>
@@ -6143,7 +6346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
         <v>193</v>
       </c>
@@ -6166,7 +6369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="4" t="s">
         <v>194</v>
       </c>
@@ -6189,7 +6392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="4" t="s">
         <v>195</v>
       </c>
@@ -6212,7 +6415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="4" t="s">
         <v>196</v>
       </c>
@@ -6235,7 +6438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
         <v>197</v>
       </c>
@@ -6258,7 +6461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="4" t="s">
         <v>198</v>
       </c>
@@ -6281,7 +6484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="4" t="s">
         <v>199</v>
       </c>
@@ -6304,7 +6507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="4" t="s">
         <v>200</v>
       </c>
@@ -6327,7 +6530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="4" t="s">
         <v>201</v>
       </c>
@@ -6350,7 +6553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="4" t="s">
         <v>202</v>
       </c>
@@ -6373,7 +6576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="4" t="s">
         <v>203</v>
       </c>
@@ -6396,7 +6599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="4" t="s">
         <v>204</v>
       </c>
@@ -6419,7 +6622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="4" t="s">
         <v>205</v>
       </c>
@@ -6442,7 +6645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="4" t="s">
         <v>206</v>
       </c>
@@ -6465,7 +6668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="4" t="s">
         <v>207</v>
       </c>
@@ -6488,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="4" t="s">
         <v>208</v>
       </c>
@@ -6511,7 +6714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="4" t="s">
         <v>209</v>
       </c>
@@ -6534,7 +6737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="4" t="s">
         <v>210</v>
       </c>
@@ -6557,7 +6760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="4" t="s">
         <v>211</v>
       </c>
@@ -6580,7 +6783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="4" t="s">
         <v>212</v>
       </c>
@@ -6603,7 +6806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="4" t="s">
         <v>213</v>
       </c>
@@ -6626,7 +6829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="4" t="s">
         <v>214</v>
       </c>
@@ -6649,7 +6852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="4" t="s">
         <v>215</v>
       </c>
@@ -6672,7 +6875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="4" t="s">
         <v>216</v>
       </c>
@@ -6695,7 +6898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="4" t="s">
         <v>217</v>
       </c>
@@ -6718,7 +6921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="4" t="s">
         <v>218</v>
       </c>
@@ -6741,7 +6944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="4" t="s">
         <v>219</v>
       </c>
@@ -6764,7 +6967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="4" t="s">
         <v>220</v>
       </c>
@@ -6787,7 +6990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
         <v>221</v>
       </c>
@@ -6810,7 +7013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="4" t="s">
         <v>222</v>
       </c>
@@ -6833,7 +7036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="4" t="s">
         <v>223</v>
       </c>
@@ -6856,7 +7059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="4" t="s">
         <v>224</v>
       </c>
@@ -6879,7 +7082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" s="4" t="s">
         <v>225</v>
       </c>
@@ -6902,7 +7105,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196" s="4" t="s">
         <v>226</v>
       </c>
@@ -6925,7 +7128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197" s="4" t="s">
         <v>228</v>
       </c>
@@ -6948,7 +7151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198" s="4" t="s">
         <v>229</v>
       </c>
@@ -6971,7 +7174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199" s="4" t="s">
         <v>230</v>
       </c>
@@ -6994,7 +7197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200" s="4" t="s">
         <v>231</v>
       </c>
@@ -7017,7 +7220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201" s="4" t="s">
         <v>232</v>
       </c>
@@ -7040,7 +7243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A202" s="4" t="s">
         <v>233</v>
       </c>
@@ -7063,7 +7266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A203" s="4" t="s">
         <v>234</v>
       </c>
@@ -7086,7 +7289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A204" s="4" t="s">
         <v>235</v>
       </c>
@@ -7109,7 +7312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A205" s="4" t="s">
         <v>236</v>
       </c>
@@ -7132,7 +7335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A206" s="4" t="s">
         <v>237</v>
       </c>
@@ -7155,7 +7358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A207" s="4" t="s">
         <v>238</v>
       </c>
@@ -7178,7 +7381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A208" s="4" t="s">
         <v>239</v>
       </c>
@@ -7201,7 +7404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A209" s="4" t="s">
         <v>240</v>
       </c>
@@ -7224,7 +7427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A210" s="4" t="s">
         <v>241</v>
       </c>
@@ -7247,7 +7450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A211" s="4" t="s">
         <v>242</v>
       </c>
@@ -7270,7 +7473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A212" s="4" t="s">
         <v>243</v>
       </c>
@@ -7293,7 +7496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A213" s="4" t="s">
         <v>244</v>
       </c>
@@ -7316,7 +7519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A214" s="4" t="s">
         <v>245</v>
       </c>
@@ -7339,7 +7542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A215" s="4" t="s">
         <v>246</v>
       </c>
@@ -7362,7 +7565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A216" s="4" t="s">
         <v>247</v>
       </c>
@@ -7385,7 +7588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A217" s="4" t="s">
         <v>249</v>
       </c>
@@ -7408,7 +7611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A218" s="4" t="s">
         <v>250</v>
       </c>
@@ -7431,7 +7634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A219" s="4" t="s">
         <v>251</v>
       </c>
@@ -7454,7 +7657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A220" s="4" t="s">
         <v>252</v>
       </c>
@@ -7477,7 +7680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A221" s="4" t="s">
         <v>253</v>
       </c>
@@ -7500,7 +7703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A222" s="4" t="s">
         <v>254</v>
       </c>
@@ -7523,7 +7726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A223" s="4" t="s">
         <v>255</v>
       </c>
@@ -7546,7 +7749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A224" s="4" t="s">
         <v>256</v>
       </c>
@@ -7569,7 +7772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" s="4" t="s">
         <v>257</v>
       </c>
@@ -7592,7 +7795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" s="4" t="s">
         <v>258</v>
       </c>
@@ -7615,7 +7818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" s="4" t="s">
         <v>259</v>
       </c>
@@ -7638,7 +7841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" s="4" t="s">
         <v>260</v>
       </c>
@@ -7661,7 +7864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" s="4" t="s">
         <v>261</v>
       </c>
@@ -7684,7 +7887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" s="4" t="s">
         <v>262</v>
       </c>
@@ -7707,7 +7910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" s="4" t="s">
         <v>263</v>
       </c>
@@ -7730,7 +7933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" s="4" t="s">
         <v>264</v>
       </c>
@@ -7753,7 +7956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" s="4" t="s">
         <v>265</v>
       </c>
@@ -7776,7 +7979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" s="4" t="s">
         <v>266</v>
       </c>
@@ -7799,7 +8002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" s="4" t="s">
         <v>267</v>
       </c>
@@ -7822,7 +8025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" s="4" t="s">
         <v>268</v>
       </c>
@@ -7845,7 +8048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" s="4" t="s">
         <v>269</v>
       </c>
@@ -7868,7 +8071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" s="4" t="s">
         <v>270</v>
       </c>
@@ -7891,7 +8094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" s="4" t="s">
         <v>271</v>
       </c>
@@ -7914,7 +8117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" s="4" t="s">
         <v>272</v>
       </c>
@@ -7937,7 +8140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A241" s="4" t="s">
         <v>273</v>
       </c>
@@ -7960,7 +8163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A242" s="4" t="s">
         <v>274</v>
       </c>
@@ -7983,7 +8186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A243" s="4" t="s">
         <v>275</v>
       </c>
@@ -8006,7 +8209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A244" s="4" t="s">
         <v>276</v>
       </c>
@@ -8029,7 +8232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A245" s="4" t="s">
         <v>277</v>
       </c>
@@ -8052,7 +8255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A246" s="4" t="s">
         <v>278</v>
       </c>
@@ -8075,7 +8278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A247" s="4" t="s">
         <v>279</v>
       </c>
@@ -8098,7 +8301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A248" s="4" t="s">
         <v>280</v>
       </c>
@@ -8121,7 +8324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A249" s="4" t="s">
         <v>281</v>
       </c>
@@ -8144,7 +8347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A250" s="4" t="s">
         <v>282</v>
       </c>
@@ -8167,7 +8370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A251" s="4" t="s">
         <v>283</v>
       </c>
@@ -8190,7 +8393,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A252" s="4" t="s">
         <v>284</v>
       </c>
@@ -8213,7 +8416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A253" s="4" t="s">
         <v>285</v>
       </c>
@@ -8236,7 +8439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A254" s="4" t="s">
         <v>287</v>
       </c>
@@ -8259,7 +8462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A255" s="4" t="s">
         <v>288</v>
       </c>
@@ -8282,7 +8485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A256" s="4" t="s">
         <v>289</v>
       </c>
@@ -8305,7 +8508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A257" s="4" t="s">
         <v>290</v>
       </c>
@@ -8328,7 +8531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A258" s="4" t="s">
         <v>291</v>
       </c>
@@ -8351,7 +8554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A259" s="4" t="s">
         <v>292</v>
       </c>
@@ -8374,7 +8577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A260" s="4" t="s">
         <v>293</v>
       </c>
@@ -8397,7 +8600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A261" s="4" t="s">
         <v>294</v>
       </c>
@@ -8420,7 +8623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A262" s="4" t="s">
         <v>295</v>
       </c>
@@ -8443,7 +8646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A263" s="4" t="s">
         <v>296</v>
       </c>
@@ -8466,7 +8669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A264" s="4" t="s">
         <v>297</v>
       </c>
@@ -8489,7 +8692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A265" s="4" t="s">
         <v>298</v>
       </c>
@@ -8512,7 +8715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A266" s="4" t="s">
         <v>299</v>
       </c>
@@ -8535,7 +8738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A267" s="4" t="s">
         <v>300</v>
       </c>
@@ -8558,7 +8761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A268" s="4" t="s">
         <v>301</v>
       </c>
@@ -8581,7 +8784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A269" s="4" t="s">
         <v>302</v>
       </c>
@@ -8604,7 +8807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A270" s="4" t="s">
         <v>303</v>
       </c>
@@ -8627,7 +8830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A271" s="4" t="s">
         <v>304</v>
       </c>
@@ -8650,7 +8853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A272" s="4" t="s">
         <v>305</v>
       </c>
@@ -8673,7 +8876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A273" s="4" t="s">
         <v>306</v>
       </c>
@@ -8696,7 +8899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A274" s="4" t="s">
         <v>307</v>
       </c>
@@ -8719,7 +8922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A275" s="4" t="s">
         <v>308</v>
       </c>
@@ -8742,7 +8945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A276" s="4" t="s">
         <v>310</v>
       </c>
@@ -8765,7 +8968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A277" s="4" t="s">
         <v>311</v>
       </c>
@@ -8788,7 +8991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A278" s="4" t="s">
         <v>312</v>
       </c>
@@ -8811,7 +9014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A279" s="4" t="s">
         <v>313</v>
       </c>
@@ -8834,7 +9037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A280" s="4" t="s">
         <v>314</v>
       </c>
@@ -8857,7 +9060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A281" s="4" t="s">
         <v>315</v>
       </c>
@@ -8880,7 +9083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A282" s="4" t="s">
         <v>316</v>
       </c>
@@ -8903,7 +9106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A283" s="4" t="s">
         <v>317</v>
       </c>
@@ -8926,7 +9129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A284" s="4" t="s">
         <v>318</v>
       </c>
@@ -8949,7 +9152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A285" s="4" t="s">
         <v>319</v>
       </c>
@@ -8972,7 +9175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A286" s="4" t="s">
         <v>320</v>
       </c>
@@ -8995,7 +9198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A287" s="4" t="s">
         <v>321</v>
       </c>
@@ -9018,7 +9221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A288" s="4" t="s">
         <v>322</v>
       </c>
@@ -9041,7 +9244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A289" s="4" t="s">
         <v>323</v>
       </c>
@@ -9064,7 +9267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A290" s="4" t="s">
         <v>324</v>
       </c>
@@ -9087,7 +9290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A291" s="4" t="s">
         <v>325</v>
       </c>
@@ -9110,7 +9313,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A292" s="4" t="s">
         <v>326</v>
       </c>
@@ -9133,7 +9336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A293" s="4" t="s">
         <v>327</v>
       </c>
@@ -9156,7 +9359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A294" s="4" t="s">
         <v>328</v>
       </c>
@@ -9179,7 +9382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A295" s="4" t="s">
         <v>329</v>
       </c>
@@ -9202,7 +9405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A296" s="4" t="s">
         <v>330</v>
       </c>
@@ -9225,7 +9428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A297" s="4" t="s">
         <v>331</v>
       </c>
@@ -9248,7 +9451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A298" s="4" t="s">
         <v>332</v>
       </c>
@@ -9271,7 +9474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A299" s="4" t="s">
         <v>333</v>
       </c>
@@ -9294,7 +9497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A300" s="4" t="s">
         <v>334</v>
       </c>
@@ -9317,7 +9520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A301" s="4" t="s">
         <v>335</v>
       </c>
@@ -9340,7 +9543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A302" s="4" t="s">
         <v>336</v>
       </c>
@@ -9363,7 +9566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A303" s="4" t="s">
         <v>337</v>
       </c>
@@ -9386,7 +9589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A304" s="4" t="s">
         <v>338</v>
       </c>
@@ -9409,7 +9612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A305" s="4" t="s">
         <v>339</v>
       </c>
@@ -9432,7 +9635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A306" s="4" t="s">
         <v>340</v>
       </c>
@@ -9455,7 +9658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A307" s="4" t="s">
         <v>341</v>
       </c>
@@ -9478,7 +9681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A308" s="4" t="s">
         <v>342</v>
       </c>
@@ -9501,7 +9704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A309" s="4" t="s">
         <v>343</v>
       </c>
@@ -9524,7 +9727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A310" s="4" t="s">
         <v>344</v>
       </c>
@@ -9547,7 +9750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A311" s="4" t="s">
         <v>345</v>
       </c>
@@ -9570,7 +9773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A312" s="4" t="s">
         <v>347</v>
       </c>
@@ -9593,7 +9796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A313" s="4" t="s">
         <v>348</v>
       </c>
@@ -9616,7 +9819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A314" s="4" t="s">
         <v>349</v>
       </c>
@@ -9639,7 +9842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A315" s="4" t="s">
         <v>350</v>
       </c>
@@ -9662,7 +9865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A316" s="4" t="s">
         <v>351</v>
       </c>
@@ -9685,7 +9888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A317" s="4" t="s">
         <v>352</v>
       </c>
@@ -9708,7 +9911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A318" s="4" t="s">
         <v>353</v>
       </c>
@@ -9731,7 +9934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A319" s="4" t="s">
         <v>354</v>
       </c>
@@ -9754,7 +9957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A320" s="4" t="s">
         <v>355</v>
       </c>
@@ -9777,7 +9980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A321" s="4" t="s">
         <v>356</v>
       </c>
@@ -9800,7 +10003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A322" s="4" t="s">
         <v>357</v>
       </c>
@@ -9823,7 +10026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A323" s="4" t="s">
         <v>358</v>
       </c>
@@ -9846,7 +10049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A324" s="4" t="s">
         <v>359</v>
       </c>
@@ -9869,7 +10072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A325" s="4" t="s">
         <v>360</v>
       </c>
@@ -9892,7 +10095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A326" s="4" t="s">
         <v>361</v>
       </c>
@@ -9915,7 +10118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A327" s="4" t="s">
         <v>362</v>
       </c>
@@ -9938,7 +10141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A328" s="4" t="s">
         <v>363</v>
       </c>
@@ -9961,7 +10164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A329" s="4" t="s">
         <v>364</v>
       </c>
@@ -9984,7 +10187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A330" s="4" t="s">
         <v>365</v>
       </c>
@@ -10007,7 +10210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A331" s="4" t="s">
         <v>366</v>
       </c>
@@ -10030,7 +10233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A332" s="4" t="s">
         <v>367</v>
       </c>
@@ -10053,7 +10256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A333" s="4" t="s">
         <v>368</v>
       </c>
@@ -10076,7 +10279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A334" s="4" t="s">
         <v>369</v>
       </c>
@@ -10099,7 +10302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A335" s="4" t="s">
         <v>370</v>
       </c>
@@ -10122,7 +10325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A336" s="4" t="s">
         <v>371</v>
       </c>
@@ -10145,7 +10348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A337" s="4" t="s">
         <v>372</v>
       </c>
@@ -10168,7 +10371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A338" s="4" t="s">
         <v>374</v>
       </c>
@@ -10191,7 +10394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A339" s="4" t="s">
         <v>375</v>
       </c>
@@ -10214,7 +10417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A340" s="4" t="s">
         <v>376</v>
       </c>
@@ -10237,7 +10440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A341" s="4" t="s">
         <v>377</v>
       </c>
@@ -10260,7 +10463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A342" s="4" t="s">
         <v>378</v>
       </c>
@@ -10283,7 +10486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A343" s="4" t="s">
         <v>379</v>
       </c>
@@ -10306,7 +10509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A344" s="4" t="s">
         <v>380</v>
       </c>
@@ -10329,7 +10532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A345" s="4" t="s">
         <v>381</v>
       </c>
@@ -10352,7 +10555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A346" s="4" t="s">
         <v>382</v>
       </c>
@@ -10375,7 +10578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A347" s="4" t="s">
         <v>383</v>
       </c>
@@ -10398,7 +10601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A348" s="4" t="s">
         <v>384</v>
       </c>
@@ -10421,7 +10624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A349" s="4" t="s">
         <v>385</v>
       </c>
@@ -10444,7 +10647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A350" s="4" t="s">
         <v>386</v>
       </c>
@@ -10467,7 +10670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A351" s="4" t="s">
         <v>387</v>
       </c>
@@ -10490,7 +10693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A352" s="4" t="s">
         <v>388</v>
       </c>
@@ -10513,7 +10716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A353" s="4" t="s">
         <v>389</v>
       </c>
@@ -10536,7 +10739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A354" s="4" t="s">
         <v>390</v>
       </c>
@@ -10559,7 +10762,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A355" s="4" t="s">
         <v>391</v>
       </c>
@@ -10582,7 +10785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A356" s="4" t="s">
         <v>392</v>
       </c>
@@ -10605,7 +10808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A357" s="4" t="s">
         <v>393</v>
       </c>
@@ -10628,7 +10831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A358" s="4" t="s">
         <v>394</v>
       </c>
@@ -10651,7 +10854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A359" s="4" t="s">
         <v>395</v>
       </c>
@@ -10674,7 +10877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A360" s="4" t="s">
         <v>396</v>
       </c>
@@ -10697,7 +10900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A361" s="4" t="s">
         <v>397</v>
       </c>
@@ -10720,7 +10923,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A362" s="4" t="s">
         <v>398</v>
       </c>
@@ -10743,7 +10946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A363" s="4" t="s">
         <v>399</v>
       </c>
@@ -10766,7 +10969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A364" s="4" t="s">
         <v>400</v>
       </c>
@@ -10789,7 +10992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A365" s="4" t="s">
         <v>401</v>
       </c>
@@ -10812,7 +11015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A366" s="4" t="s">
         <v>402</v>
       </c>
@@ -10835,7 +11038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A367" s="4" t="s">
         <v>403</v>
       </c>
@@ -10858,7 +11061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A368" s="4" t="s">
         <v>404</v>
       </c>
@@ -10881,7 +11084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A369" s="4" t="s">
         <v>405</v>
       </c>
@@ -10904,7 +11107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A370" s="4" t="s">
         <v>406</v>
       </c>
@@ -10927,7 +11130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A371" s="4" t="s">
         <v>407</v>
       </c>
@@ -10950,7 +11153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A372" s="4" t="s">
         <v>408</v>
       </c>
@@ -10973,7 +11176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A373" s="4" t="s">
         <v>409</v>
       </c>
@@ -10996,7 +11199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A374" s="4" t="s">
         <v>411</v>
       </c>
@@ -11019,7 +11222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A375" s="4" t="s">
         <v>412</v>
       </c>
@@ -11042,7 +11245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A376" s="4" t="s">
         <v>413</v>
       </c>
@@ -11065,7 +11268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A377" s="4" t="s">
         <v>414</v>
       </c>
@@ -11088,7 +11291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A378" s="4" t="s">
         <v>415</v>
       </c>
@@ -11111,7 +11314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A379" s="4" t="s">
         <v>416</v>
       </c>
@@ -11134,7 +11337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A380" s="4" t="s">
         <v>417</v>
       </c>
@@ -11157,7 +11360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A381" s="4" t="s">
         <v>418</v>
       </c>
@@ -11180,7 +11383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A382" s="4" t="s">
         <v>419</v>
       </c>
@@ -11203,7 +11406,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A383" s="4" t="s">
         <v>420</v>
       </c>
@@ -11226,7 +11429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A384" s="4" t="s">
         <v>421</v>
       </c>
@@ -11249,7 +11452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A385" s="4" t="s">
         <v>422</v>
       </c>
@@ -11272,7 +11475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A386" s="4" t="s">
         <v>423</v>
       </c>
@@ -11295,7 +11498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A387" s="4" t="s">
         <v>424</v>
       </c>
@@ -11318,7 +11521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A388" s="4" t="s">
         <v>425</v>
       </c>
@@ -11341,7 +11544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A389" s="4" t="s">
         <v>426</v>
       </c>
@@ -11364,7 +11567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A390" s="4" t="s">
         <v>427</v>
       </c>
@@ -11387,7 +11590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A391" s="4" t="s">
         <v>429</v>
       </c>
@@ -11410,7 +11613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A392" s="4" t="s">
         <v>430</v>
       </c>
@@ -11433,7 +11636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A393" s="4" t="s">
         <v>431</v>
       </c>
@@ -11456,7 +11659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A394" s="4" t="s">
         <v>432</v>
       </c>
@@ -11479,7 +11682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A395" s="4" t="s">
         <v>433</v>
       </c>
@@ -11502,7 +11705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A396" s="4" t="s">
         <v>434</v>
       </c>
@@ -11525,7 +11728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A397" s="4" t="s">
         <v>435</v>
       </c>
@@ -11548,7 +11751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A398" s="4" t="s">
         <v>436</v>
       </c>
@@ -11571,7 +11774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A399" s="4" t="s">
         <v>437</v>
       </c>
@@ -11594,7 +11797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A400" s="4" t="s">
         <v>438</v>
       </c>
@@ -11617,7 +11820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A401" s="4" t="s">
         <v>439</v>
       </c>
@@ -11640,7 +11843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A402" s="4" t="s">
         <v>440</v>
       </c>
@@ -11663,7 +11866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A403" s="4" t="s">
         <v>441</v>
       </c>
@@ -11686,7 +11889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A404" s="4" t="s">
         <v>442</v>
       </c>
@@ -11709,7 +11912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A405" s="4" t="s">
         <v>443</v>
       </c>
@@ -11732,7 +11935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A406" s="4" t="s">
         <v>444</v>
       </c>
@@ -11755,7 +11958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A407" s="4" t="s">
         <v>445</v>
       </c>
@@ -11778,7 +11981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A408" s="4" t="s">
         <v>447</v>
       </c>
@@ -11801,7 +12004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A409" s="4" t="s">
         <v>448</v>
       </c>
@@ -11824,7 +12027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A410" s="4" t="s">
         <v>449</v>
       </c>
@@ -11847,7 +12050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A411" s="4" t="s">
         <v>450</v>
       </c>
@@ -11870,7 +12073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A412" s="4" t="s">
         <v>451</v>
       </c>
@@ -11893,7 +12096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A413" s="4" t="s">
         <v>452</v>
       </c>
@@ -11916,7 +12119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A414" s="4" t="s">
         <v>453</v>
       </c>
@@ -11939,7 +12142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A415" s="4" t="s">
         <v>454</v>
       </c>
@@ -11962,7 +12165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A416" s="4" t="s">
         <v>455</v>
       </c>
@@ -11985,7 +12188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A417" s="4" t="s">
         <v>456</v>
       </c>
@@ -12008,7 +12211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A418" s="4" t="s">
         <v>457</v>
       </c>
@@ -12031,7 +12234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A419" s="4" t="s">
         <v>458</v>
       </c>
@@ -12054,7 +12257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A420" s="4" t="s">
         <v>459</v>
       </c>
@@ -12077,7 +12280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A421" s="4" t="s">
         <v>460</v>
       </c>
@@ -12100,7 +12303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A422" s="4" t="s">
         <v>461</v>
       </c>
@@ -12123,7 +12326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A423" s="4" t="s">
         <v>462</v>
       </c>
@@ -12146,7 +12349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A424" s="4" t="s">
         <v>463</v>
       </c>
@@ -12169,7 +12372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A425" s="4" t="s">
         <v>464</v>
       </c>
@@ -12192,7 +12395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A426" s="4" t="s">
         <v>465</v>
       </c>
@@ -12215,7 +12418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A427" s="4" t="s">
         <v>466</v>
       </c>
@@ -12238,7 +12441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A428" s="4" t="s">
         <v>467</v>
       </c>
@@ -12261,7 +12464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A429" s="4" t="s">
         <v>468</v>
       </c>
@@ -12284,7 +12487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A430" s="4" t="s">
         <v>469</v>
       </c>
@@ -12307,7 +12510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A431" s="4" t="s">
         <v>470</v>
       </c>
@@ -12330,7 +12533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A432" s="4" t="s">
         <v>471</v>
       </c>
@@ -12353,7 +12556,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A433" s="4" t="s">
         <v>472</v>
       </c>
@@ -12376,7 +12579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A434" s="4" t="s">
         <v>473</v>
       </c>
@@ -12399,7 +12602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A435" s="4" t="s">
         <v>475</v>
       </c>
@@ -12422,7 +12625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A436" s="4" t="s">
         <v>476</v>
       </c>
@@ -12445,7 +12648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A437" s="4" t="s">
         <v>477</v>
       </c>
@@ -12468,7 +12671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A438" s="4" t="s">
         <v>478</v>
       </c>
@@ -12491,7 +12694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A439" s="4" t="s">
         <v>479</v>
       </c>
@@ -12514,7 +12717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A440" s="4" t="s">
         <v>480</v>
       </c>
@@ -12537,7 +12740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A441" s="4" t="s">
         <v>481</v>
       </c>
@@ -12560,7 +12763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A442" s="4" t="s">
         <v>482</v>
       </c>
@@ -12583,7 +12786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A443" s="4" t="s">
         <v>483</v>
       </c>
@@ -12606,7 +12809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A444" s="4" t="s">
         <v>484</v>
       </c>
@@ -12629,7 +12832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A445" s="4" t="s">
         <v>485</v>
       </c>
@@ -12652,7 +12855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A446" s="4" t="s">
         <v>486</v>
       </c>
@@ -12675,7 +12878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A447" s="4" t="s">
         <v>487</v>
       </c>
@@ -12698,7 +12901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A448" s="4" t="s">
         <v>488</v>
       </c>
@@ -12721,7 +12924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A449" s="4" t="s">
         <v>489</v>
       </c>
@@ -12744,7 +12947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A450" s="4" t="s">
         <v>490</v>
       </c>
@@ -12767,7 +12970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A451" s="4" t="s">
         <v>491</v>
       </c>
@@ -12790,7 +12993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A452" s="4" t="s">
         <v>492</v>
       </c>
@@ -12813,7 +13016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A453" s="4" t="s">
         <v>493</v>
       </c>
@@ -12836,7 +13039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A454" s="4" t="s">
         <v>494</v>
       </c>
@@ -12859,7 +13062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A455" s="4" t="s">
         <v>495</v>
       </c>
@@ -12882,7 +13085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A456" s="4" t="s">
         <v>496</v>
       </c>
@@ -12905,7 +13108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A457" s="4" t="s">
         <v>497</v>
       </c>
@@ -12928,7 +13131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A458" s="4" t="s">
         <v>498</v>
       </c>
@@ -12951,7 +13154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A459" s="4" t="s">
         <v>499</v>
       </c>
@@ -12974,7 +13177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A460" s="4" t="s">
         <v>500</v>
       </c>
@@ -12997,7 +13200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A461" s="4" t="s">
         <v>501</v>
       </c>
@@ -13020,7 +13223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A462" s="4" t="s">
         <v>502</v>
       </c>
@@ -13043,7 +13246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A463" s="4" t="s">
         <v>503</v>
       </c>
@@ -13066,7 +13269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A464" s="4" t="s">
         <v>504</v>
       </c>
@@ -13089,7 +13292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A465" s="4" t="s">
         <v>505</v>
       </c>
@@ -13112,7 +13315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A466" s="4" t="s">
         <v>506</v>
       </c>
@@ -13135,7 +13338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A467" s="4" t="s">
         <v>507</v>
       </c>
@@ -13158,7 +13361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A468" s="4" t="s">
         <v>508</v>
       </c>
@@ -13181,7 +13384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A469" s="4" t="s">
         <v>509</v>
       </c>
@@ -13204,7 +13407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A470" s="4" t="s">
         <v>510</v>
       </c>
@@ -13227,7 +13430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A471" s="4" t="s">
         <v>511</v>
       </c>
@@ -13250,7 +13453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A472" s="4" t="s">
         <v>512</v>
       </c>
@@ -13273,7 +13476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A473" s="4" t="s">
         <v>513</v>
       </c>
@@ -13296,7 +13499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A474" s="4" t="s">
         <v>515</v>
       </c>
@@ -13319,7 +13522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A475" s="4" t="s">
         <v>516</v>
       </c>
@@ -13342,7 +13545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A476" s="4" t="s">
         <v>517</v>
       </c>
@@ -13365,7 +13568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A477" s="4" t="s">
         <v>518</v>
       </c>
@@ -13388,7 +13591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A478" s="4" t="s">
         <v>519</v>
       </c>
@@ -13411,7 +13614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A479" s="4" t="s">
         <v>520</v>
       </c>
@@ -13434,7 +13637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A480" s="4" t="s">
         <v>521</v>
       </c>
@@ -13457,7 +13660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A481" s="4" t="s">
         <v>522</v>
       </c>
@@ -13480,7 +13683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A482" s="4" t="s">
         <v>523</v>
       </c>
@@ -13503,7 +13706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A483" s="4" t="s">
         <v>524</v>
       </c>
@@ -13526,7 +13729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A484" s="4" t="s">
         <v>525</v>
       </c>
@@ -13549,7 +13752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A485" s="4" t="s">
         <v>526</v>
       </c>
@@ -13572,7 +13775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A486" s="4" t="s">
         <v>527</v>
       </c>
@@ -13595,7 +13798,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A487" s="4" t="s">
         <v>528</v>
       </c>
@@ -13618,7 +13821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A488" s="4" t="s">
         <v>529</v>
       </c>
@@ -13641,7 +13844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A489" s="4" t="s">
         <v>530</v>
       </c>
@@ -13664,7 +13867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A490" s="4" t="s">
         <v>531</v>
       </c>
@@ -13687,7 +13890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A491" s="4" t="s">
         <v>532</v>
       </c>
@@ -13710,7 +13913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A492" s="4" t="s">
         <v>533</v>
       </c>
@@ -13733,7 +13936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A493" s="4" t="s">
         <v>535</v>
       </c>
@@ -13756,7 +13959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A494" s="4" t="s">
         <v>536</v>
       </c>
@@ -13779,7 +13982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A495" s="4" t="s">
         <v>537</v>
       </c>
@@ -13802,7 +14005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A496" s="4" t="s">
         <v>538</v>
       </c>
@@ -13825,7 +14028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A497" s="4" t="s">
         <v>539</v>
       </c>
@@ -13848,7 +14051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A498" s="4" t="s">
         <v>540</v>
       </c>
@@ -13871,7 +14074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A499" s="4" t="s">
         <v>541</v>
       </c>
@@ -13894,7 +14097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A500" s="4" t="s">
         <v>542</v>
       </c>
@@ -13917,7 +14120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A501" s="4" t="s">
         <v>543</v>
       </c>
@@ -13940,7 +14143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A502" s="4" t="s">
         <v>544</v>
       </c>
@@ -13963,7 +14166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A503" s="4" t="s">
         <v>545</v>
       </c>
@@ -13986,7 +14189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A504" s="4" t="s">
         <v>546</v>
       </c>
@@ -14009,7 +14212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A505" s="4" t="s">
         <v>547</v>
       </c>
@@ -14032,7 +14235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A506" s="4" t="s">
         <v>548</v>
       </c>
@@ -14055,7 +14258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A507" s="4" t="s">
         <v>549</v>
       </c>
@@ -14078,7 +14281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A508" s="4" t="s">
         <v>550</v>
       </c>
@@ -14101,7 +14304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A509" s="4" t="s">
         <v>551</v>
       </c>
@@ -14124,7 +14327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A510" s="4" t="s">
         <v>552</v>
       </c>
@@ -14147,7 +14350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A511" s="4" t="s">
         <v>553</v>
       </c>
@@ -14170,7 +14373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A512" s="4" t="s">
         <v>554</v>
       </c>
@@ -14193,7 +14396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A513" s="4" t="s">
         <v>555</v>
       </c>
@@ -14216,7 +14419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A514" s="4" t="s">
         <v>556</v>
       </c>
@@ -14239,7 +14442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A515" s="4" t="s">
         <v>557</v>
       </c>
@@ -14262,7 +14465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A516" s="4" t="s">
         <v>558</v>
       </c>
@@ -14285,7 +14488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A517" s="4" t="s">
         <v>559</v>
       </c>
@@ -14308,7 +14511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A518" s="4" t="s">
         <v>561</v>
       </c>
@@ -14331,7 +14534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A519" s="4" t="s">
         <v>562</v>
       </c>
@@ -14354,7 +14557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A520" s="4" t="s">
         <v>563</v>
       </c>
@@ -14377,7 +14580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A521" s="4" t="s">
         <v>564</v>
       </c>
@@ -14400,7 +14603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A522" s="4" t="s">
         <v>565</v>
       </c>
@@ -14423,7 +14626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A523" s="4" t="s">
         <v>566</v>
       </c>
@@ -14446,7 +14649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A524" s="4" t="s">
         <v>567</v>
       </c>
@@ -14469,7 +14672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A525" s="4" t="s">
         <v>568</v>
       </c>
@@ -14492,7 +14695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A526" s="4" t="s">
         <v>569</v>
       </c>
@@ -14515,7 +14718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A527" s="4" t="s">
         <v>570</v>
       </c>
@@ -14538,7 +14741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A528" s="4" t="s">
         <v>571</v>
       </c>
@@ -14561,7 +14764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A529" s="4" t="s">
         <v>572</v>
       </c>
@@ -14584,7 +14787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A530" s="4" t="s">
         <v>573</v>
       </c>
@@ -14607,7 +14810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A531" s="4" t="s">
         <v>574</v>
       </c>
@@ -14630,7 +14833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A532" s="4" t="s">
         <v>575</v>
       </c>
@@ -14653,7 +14856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A533" s="4" t="s">
         <v>576</v>
       </c>
@@ -14676,7 +14879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A534" s="4" t="s">
         <v>577</v>
       </c>
@@ -14699,7 +14902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A535" s="4" t="s">
         <v>578</v>
       </c>
@@ -14722,7 +14925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A536" s="4" t="s">
         <v>579</v>
       </c>
@@ -14745,7 +14948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A537" s="4" t="s">
         <v>580</v>
       </c>
@@ -14768,7 +14971,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A538" s="4" t="s">
         <v>581</v>
       </c>
@@ -14791,7 +14994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A539" s="4" t="s">
         <v>582</v>
       </c>
@@ -14814,7 +15017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A540" s="4" t="s">
         <v>583</v>
       </c>
@@ -14837,7 +15040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A541" s="4" t="s">
         <v>584</v>
       </c>
@@ -14860,7 +15063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A542" s="4" t="s">
         <v>585</v>
       </c>
@@ -14883,7 +15086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A543" s="4" t="s">
         <v>586</v>
       </c>
@@ -14906,7 +15109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A544" s="4" t="s">
         <v>587</v>
       </c>
@@ -14929,7 +15132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A545" s="4" t="s">
         <v>588</v>
       </c>
@@ -14952,7 +15155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A546" s="4" t="s">
         <v>589</v>
       </c>
@@ -14975,7 +15178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A547" s="4" t="s">
         <v>590</v>
       </c>
@@ -14998,7 +15201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A548" s="4" t="s">
         <v>591</v>
       </c>
@@ -15021,7 +15224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A549" s="4" t="s">
         <v>592</v>
       </c>
@@ -15044,7 +15247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A550" s="4" t="s">
         <v>593</v>
       </c>
@@ -15067,7 +15270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A551" s="4" t="s">
         <v>594</v>
       </c>
@@ -15100,15 +15303,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>595</v>
       </c>
@@ -15116,23 +15319,29 @@
         <v>596</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -15140,7 +15349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -15148,7 +15357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -15156,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -15164,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -15172,7 +15381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -15180,7 +15389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -15188,7 +15397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -15196,29 +15405,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>609</v>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -15231,17 +15465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.58203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>600</v>
       </c>
@@ -15321,7 +15555,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>601</v>
       </c>
@@ -15353,7 +15587,7 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>602</v>
       </c>
@@ -15385,12 +15619,12 @@
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>600</v>
       </c>
@@ -15470,7 +15704,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>601</v>
       </c>
@@ -15500,7 +15734,7 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
         <v>602</v>
       </c>
@@ -15530,12 +15764,12 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
         <v>600</v>
       </c>
@@ -15615,7 +15849,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>601</v>
       </c>
@@ -15645,7 +15879,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>602</v>
       </c>
@@ -15675,12 +15909,12 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="9" t="s">
         <v>600</v>
       </c>
@@ -15760,7 +15994,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" s="9" t="s">
         <v>601</v>
       </c>
@@ -15790,7 +16024,7 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" s="9" t="s">
         <v>602</v>
       </c>
@@ -15820,12 +16054,12 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" s="9" t="s">
         <v>600</v>
       </c>
@@ -15905,7 +16139,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>601</v>
       </c>
@@ -15935,7 +16169,7 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
         <v>602</v>
       </c>
@@ -15965,12 +16199,12 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>600</v>
       </c>
@@ -16050,7 +16284,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
         <v>601</v>
       </c>
@@ -16080,7 +16314,7 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A28" s="9" t="s">
         <v>602</v>
       </c>
@@ -16110,12 +16344,12 @@
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A31" s="9" t="s">
         <v>600</v>
       </c>
@@ -16195,7 +16429,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
         <v>601</v>
       </c>
@@ -16225,7 +16459,7 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>602</v>
       </c>
